--- a/www.eia.gov/electricity/monthly/xls/table_1_17_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_17_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>Table 1.17.A. Net Generation from Solar Photovoltaic</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -76,10 +76,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1532,61 +1532,61 @@
         <v>19</v>
       </c>
       <c r="B7" s="10">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C7" s="10">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D7" s="11">
-        <v>0.40200000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E7" s="10">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="10">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H7" s="10">
-        <v>96</v>
-      </c>
-      <c r="I7" s="10">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
       </c>
       <c r="K7" s="10">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L7" s="10">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="10">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="10">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="10">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
@@ -1595,42 +1595,42 @@
         <v>0</v>
       </c>
       <c r="W7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X7" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="10">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="10">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13">
-        <v>27</v>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="13">
-        <v>18</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.503</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>20</v>
@@ -1638,53 +1638,53 @@
       <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
-        <v>2</v>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="L8" s="13">
         <v>1</v>
       </c>
       <c r="M8" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" s="13">
+        <v>6</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>8</v>
+      </c>
+      <c r="R8" s="13">
+        <v>6</v>
+      </c>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>1</v>
+      </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="13">
         <v>7</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>10</v>
-      </c>
-      <c r="R8" s="13">
-        <v>7</v>
-      </c>
-      <c r="S8" s="13">
-        <v>1</v>
-      </c>
-      <c r="T8" s="13">
-        <v>1</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
-        <v>1</v>
-      </c>
-      <c r="X8" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1695,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="14">
-        <v>0.35399999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="13">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="O9" s="13">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="13">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="S9" s="13">
         <v>0</v>
@@ -1772,61 +1772,61 @@
         <v>23</v>
       </c>
       <c r="B10" s="13">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C10" s="13">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D10" s="14">
-        <v>0.375</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E10" s="13">
+        <v>46</v>
+      </c>
+      <c r="F10" s="13">
+        <v>32</v>
+      </c>
+      <c r="G10" s="13">
+        <v>68</v>
+      </c>
+      <c r="H10" s="13">
         <v>53</v>
       </c>
-      <c r="F10" s="13">
+      <c r="I10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>44</v>
+      </c>
+      <c r="L10" s="13">
+        <v>31</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="13">
         <v>35</v>
       </c>
-      <c r="G10" s="13">
-        <v>92</v>
-      </c>
-      <c r="H10" s="13">
-        <v>70</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>51</v>
-      </c>
-      <c r="L10" s="13">
-        <v>34</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="13">
-        <v>47</v>
-      </c>
       <c r="O10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P10" s="13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="13">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="R10" s="13">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="S10" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" s="13">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="W10" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="13">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Z10" s="13">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1852,13 +1852,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="13">
         <v>2</v>
       </c>
       <c r="D11" s="14">
-        <v>1.167</v>
+        <v>1.054</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="13">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="13">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="O11" s="13">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="R11" s="13">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="S11" s="13">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T11" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U11" s="13">
         <v>0</v>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="W11" s="13">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X11" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y11" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="13">
         <v>1</v>
@@ -1931,23 +1931,23 @@
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="13">
-        <v>3</v>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -1958,8 +1958,8 @@
       <c r="J12" s="13">
         <v>0</v>
       </c>
-      <c r="K12" s="13">
-        <v>2</v>
+      <c r="K12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="L12" s="13">
         <v>1</v>
@@ -2003,8 +2003,8 @@
       <c r="Y12" s="13">
         <v>1</v>
       </c>
-      <c r="Z12" s="13">
-        <v>0.24</v>
+      <c r="Z12" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2012,79 +2012,79 @@
         <v>26</v>
       </c>
       <c r="B13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="14">
-        <v>0.30599999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="E13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13">
         <v>4</v>
       </c>
-      <c r="G13" s="13">
-        <v>5</v>
-      </c>
       <c r="H13" s="13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
         <v>4</v>
       </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <v>5</v>
-      </c>
       <c r="L13" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="13">
         <v>2</v>
       </c>
-      <c r="N13" s="13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="Z13" s="13">
         <v>2</v>
-      </c>
-      <c r="R13" s="13">
-        <v>1</v>
-      </c>
-      <c r="S13" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="T13" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="X13" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2092,79 +2092,79 @@
         <v>27</v>
       </c>
       <c r="B14" s="10">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="C14" s="10">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="D14" s="11">
-        <v>0.27800000000000002</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E14" s="10">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F14" s="10">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="H14" s="10">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="I14" s="10">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4</v>
+      </c>
+      <c r="K14" s="10">
+        <v>58</v>
+      </c>
+      <c r="L14" s="10">
+        <v>37</v>
+      </c>
+      <c r="M14" s="10">
+        <v>104</v>
+      </c>
+      <c r="N14" s="10">
+        <v>87</v>
+      </c>
+      <c r="O14" s="10">
+        <v>12</v>
+      </c>
+      <c r="P14" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>92</v>
+      </c>
+      <c r="R14" s="10">
+        <v>78</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10">
+        <v>10</v>
+      </c>
+      <c r="X14" s="10">
         <v>9</v>
       </c>
-      <c r="J14" s="10">
-        <v>5</v>
-      </c>
-      <c r="K14" s="10">
-        <v>68</v>
-      </c>
-      <c r="L14" s="10">
-        <v>50</v>
-      </c>
-      <c r="M14" s="10">
-        <v>133</v>
-      </c>
-      <c r="N14" s="10">
-        <v>116</v>
-      </c>
-      <c r="O14" s="10">
-        <v>13</v>
-      </c>
-      <c r="P14" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>120</v>
-      </c>
-      <c r="R14" s="10">
-        <v>104</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="10">
-        <v>12</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="10">
-        <v>1</v>
-      </c>
-      <c r="W14" s="10">
-        <v>12</v>
-      </c>
-      <c r="X14" s="10">
-        <v>12</v>
-      </c>
       <c r="Y14" s="10">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="10">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2172,79 +2172,79 @@
         <v>28</v>
       </c>
       <c r="B15" s="13">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C15" s="13">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D15" s="14">
-        <v>0.23599999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E15" s="13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F15" s="13">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G15" s="13">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="H15" s="13">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="I15" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="13">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13">
+        <v>42</v>
+      </c>
+      <c r="L15" s="13">
+        <v>27</v>
+      </c>
+      <c r="M15" s="13">
+        <v>78</v>
+      </c>
+      <c r="N15" s="13">
+        <v>67</v>
+      </c>
+      <c r="O15" s="13">
+        <v>11</v>
+      </c>
+      <c r="P15" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>67</v>
+      </c>
+      <c r="R15" s="13">
+        <v>59</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="13">
         <v>5</v>
       </c>
-      <c r="K15" s="13">
-        <v>49</v>
-      </c>
-      <c r="L15" s="13">
-        <v>37</v>
-      </c>
-      <c r="M15" s="13">
-        <v>98</v>
-      </c>
-      <c r="N15" s="13">
-        <v>88</v>
-      </c>
-      <c r="O15" s="13">
-        <v>13</v>
-      </c>
-      <c r="P15" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>85</v>
-      </c>
-      <c r="R15" s="13">
-        <v>77</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="13">
+      <c r="U15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="W15" s="13">
         <v>6</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="W15" s="13">
-        <v>7</v>
-      </c>
       <c r="X15" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="13">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z15" s="13">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2252,56 +2252,56 @@
         <v>29</v>
       </c>
       <c r="B16" s="13">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C16" s="13">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D16" s="14">
-        <v>0.439</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E16" s="13">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13">
+        <v>7</v>
+      </c>
+      <c r="G16" s="13">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13">
+        <v>35</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>12</v>
+      </c>
+      <c r="L16" s="13">
+        <v>7</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="13">
         <v>14</v>
       </c>
-      <c r="F16" s="13">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13">
-        <v>68</v>
-      </c>
-      <c r="H16" s="13">
-        <v>48</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="O16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>18</v>
+      </c>
+      <c r="R16" s="13">
         <v>14</v>
       </c>
-      <c r="L16" s="13">
-        <v>9</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="13">
-        <v>20</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>25</v>
-      </c>
-      <c r="R16" s="13">
-        <v>19</v>
-      </c>
       <c r="S16" s="13">
         <v>1</v>
       </c>
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="Y16" s="13">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Z16" s="13">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2332,79 +2332,79 @@
         <v>30</v>
       </c>
       <c r="B17" s="13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" s="14">
-        <v>0.182</v>
+        <v>0.247</v>
       </c>
       <c r="E17" s="13">
         <v>6</v>
       </c>
       <c r="F17" s="13">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>4</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="13">
+        <v>6</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>7</v>
+      </c>
+      <c r="R17" s="13">
+        <v>6</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="13">
+        <v>4</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <v>3</v>
+      </c>
+      <c r="X17" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="13">
         <v>5</v>
-      </c>
-      <c r="G17" s="13">
-        <v>23</v>
-      </c>
-      <c r="H17" s="13">
-        <v>19</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>5</v>
-      </c>
-      <c r="L17" s="13">
-        <v>4</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="13">
-        <v>8</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>10</v>
-      </c>
-      <c r="R17" s="13">
-        <v>8</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="13">
-        <v>5</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="13">
-        <v>1</v>
-      </c>
-      <c r="W17" s="13">
-        <v>4</v>
-      </c>
-      <c r="X17" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2412,79 +2412,79 @@
         <v>31</v>
       </c>
       <c r="B18" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" s="11">
-        <v>0.53800000000000003</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="E18" s="10">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I18" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="10">
         <v>2</v>
       </c>
       <c r="K18" s="10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="10">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R18" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T18" s="10">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="V18" s="10">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="X18" s="10">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="Y18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2492,22 +2492,22 @@
         <v>32</v>
       </c>
       <c r="B19" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>0.29499999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="E19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="13">
         <v>2</v>
@@ -2516,16 +2516,16 @@
         <v>20</v>
       </c>
       <c r="J19" s="13">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="K19" s="13">
         <v>4</v>
       </c>
       <c r="L19" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="13">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="13">
         <v>1</v>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="Z19" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2572,16 +2572,16 @@
         <v>33</v>
       </c>
       <c r="B20" s="13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13">
         <v>13</v>
       </c>
       <c r="D20" s="14">
-        <v>0.90100000000000002</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E20" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20" s="13">
         <v>12</v>
@@ -2593,22 +2593,22 @@
         <v>1</v>
       </c>
       <c r="I20" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L20" s="13">
         <v>11</v>
       </c>
       <c r="M20" s="13">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="N20" s="13">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="O20" s="13">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="13">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="R20" s="13">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="S20" s="13" t="s">
         <v>20</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="Z20" s="13">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>20</v>
@@ -2664,19 +2664,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="13">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G21" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="13">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K21" s="13">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="13">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T21" s="13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U21" s="13">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>20</v>
       </c>
       <c r="X21" s="13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Y21" s="13">
         <v>1</v>
       </c>
       <c r="Z21" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2732,25 +2732,25 @@
         <v>35</v>
       </c>
       <c r="B22" s="13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="14">
-        <v>0.27200000000000002</v>
+        <v>0.253</v>
       </c>
       <c r="E22" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="13">
         <v>4</v>
       </c>
       <c r="G22" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H22" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>20</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" s="13">
         <v>3</v>
@@ -2768,40 +2768,40 @@
         <v>20</v>
       </c>
       <c r="N22" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P22" s="13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R22" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T22" s="13">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="U22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="V22" s="13">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="W22" s="13">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="X22" s="13">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="Y22" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="13">
         <v>1</v>
@@ -2824,13 +2824,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M23" s="13">
         <v>1</v>
@@ -2892,28 +2892,28 @@
         <v>37</v>
       </c>
       <c r="B24" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" s="10">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="11">
-        <v>0.33200000000000002</v>
+        <v>0.318</v>
       </c>
       <c r="E24" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="10">
         <v>2</v>
       </c>
       <c r="G24" s="10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H24" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I24" s="10">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="J24" s="10">
         <v>0</v>
@@ -2928,25 +2928,25 @@
         <v>20</v>
       </c>
       <c r="N24" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P24" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q24" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R24" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S24" s="10">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="T24" s="10">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="U24" s="10">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="10">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="X24" s="10">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="Y24" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2972,25 +2972,25 @@
         <v>38</v>
       </c>
       <c r="B25" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
         <v>3</v>
       </c>
-      <c r="D25" s="14">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>4</v>
-      </c>
       <c r="H25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="13">
         <v>2</v>
@@ -3017,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="13">
         <v>2</v>
       </c>
       <c r="S25" s="13">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T25" s="13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="U25" s="13">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="13">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X25" s="13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="Y25" s="13">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="13">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>20</v>
@@ -3064,44 +3064,44 @@
         <v>20</v>
       </c>
       <c r="F26" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="N26" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="13">
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="R26" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M26" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="O26" s="13">
-        <v>0</v>
-      </c>
-      <c r="P26" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="R26" s="13">
-        <v>0.16</v>
-      </c>
       <c r="S26" s="13">
         <v>0</v>
       </c>
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="Y26" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="Z26" s="13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>20</v>
       </c>
       <c r="F27" s="13">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G27" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="13">
         <v>2</v>
@@ -3162,7 +3162,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="13">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="M27" s="13">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="S27" s="13">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="T27" s="13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="U27" s="13">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="13">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="X27" s="13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Y27" s="13">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>41</v>
       </c>
       <c r="B28" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="14">
-        <v>0.19700000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E28" s="13">
         <v>2</v>
@@ -3227,19 +3227,19 @@
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="13">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
       </c>
-      <c r="K28" s="13">
-        <v>2</v>
+      <c r="K28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="L28" s="13">
         <v>1</v>
@@ -3248,25 +3248,25 @@
         <v>20</v>
       </c>
       <c r="N28" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P28" s="13">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q28" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R28" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S28" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T28" s="13">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U28" s="13">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="W28" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X28" s="13">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y28" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="13">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>20</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="13">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="13">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0.01</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3375,10 +3375,10 @@
         <v>0.02</v>
       </c>
       <c r="C30" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D30" s="14">
-        <v>5.7000000000000002E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0.02</v>
       </c>
       <c r="H30" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z30" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3452,55 +3452,55 @@
         <v>44</v>
       </c>
       <c r="B31" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C31" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
         <v>0.04</v>
       </c>
-      <c r="D31" s="14">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="N31" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
         <v>0.04</v>
       </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="O31" s="13">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>0.05</v>
-      </c>
       <c r="R31" s="13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S31" s="13">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z31" s="13">
         <v>0.01</v>
@@ -3532,79 +3532,79 @@
         <v>45</v>
       </c>
       <c r="B32" s="10">
-        <v>577</v>
+        <v>485</v>
       </c>
       <c r="C32" s="10">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D32" s="11">
-        <v>1.855</v>
+        <v>2.004</v>
       </c>
       <c r="E32" s="10">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="F32" s="10">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G32" s="10">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H32" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I32" s="10">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J32" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K32" s="10">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="L32" s="10">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="N32" s="10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O32" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P32" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="10">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="R32" s="10">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S32" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" s="10">
+        <v>2</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0</v>
+      </c>
+      <c r="W32" s="10">
         <v>3</v>
       </c>
-      <c r="U32" s="10">
-        <v>0</v>
-      </c>
-      <c r="V32" s="10">
-        <v>0</v>
-      </c>
-      <c r="W32" s="10">
-        <v>4</v>
-      </c>
       <c r="X32" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="10">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Z32" s="10">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3612,61 +3612,61 @@
         <v>46</v>
       </c>
       <c r="B33" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="14">
-        <v>0.439</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E33" s="13">
+        <v>4</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13">
+        <v>8</v>
+      </c>
+      <c r="H33" s="13">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="I33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="K33" s="13">
         <v>3</v>
       </c>
-      <c r="G33" s="13">
-        <v>9</v>
-      </c>
-      <c r="H33" s="13">
-        <v>6</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="K33" s="13">
-        <v>4</v>
-      </c>
       <c r="L33" s="13">
+        <v>2</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="13">
         <v>3</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="13">
-        <v>4</v>
-      </c>
       <c r="O33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P33" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q33" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R33" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="T33" s="13">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="U33" s="13">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="X33" s="13">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="Y33" s="13">
         <v>3</v>
@@ -3692,13 +3692,13 @@
         <v>47</v>
       </c>
       <c r="B34" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="13">
         <v>2</v>
       </c>
       <c r="D34" s="14">
-        <v>0.89300000000000002</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="13">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="13">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="13">
         <v>0</v>
@@ -3772,37 +3772,37 @@
         <v>48</v>
       </c>
       <c r="B35" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="14">
-        <v>0.59</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E35" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>20</v>
@@ -3814,19 +3814,19 @@
         <v>20</v>
       </c>
       <c r="P35" s="13">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="Q35" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R35" s="13">
         <v>6</v>
       </c>
       <c r="S35" s="13">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="T35" s="13">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="U35" s="13">
         <v>0</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="13">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="X35" s="13">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="Y35" s="13">
         <v>10</v>
@@ -3855,16 +3855,16 @@
         <v>20</v>
       </c>
       <c r="C36" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="13">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F36" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>20</v>
@@ -3873,16 +3873,16 @@
         <v>20</v>
       </c>
       <c r="I36" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K36" s="13">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L36" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>20</v>
@@ -3894,7 +3894,7 @@
         <v>20</v>
       </c>
       <c r="P36" s="13">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="Q36" s="13" t="s">
         <v>20</v>
@@ -3932,58 +3932,58 @@
         <v>50</v>
       </c>
       <c r="B37" s="13">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C37" s="13">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D37" s="14">
-        <v>0.76300000000000001</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="E37" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="13">
+        <v>8</v>
+      </c>
+      <c r="G37" s="13">
+        <v>42</v>
+      </c>
+      <c r="H37" s="13">
+        <v>23</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="13">
         <v>10</v>
       </c>
-      <c r="G37" s="13">
-        <v>56</v>
-      </c>
-      <c r="H37" s="13">
-        <v>30</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="13">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13">
-        <v>13</v>
-      </c>
       <c r="L37" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N37" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P37" s="13">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="Q37" s="13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R37" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S37" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T37" s="13">
         <v>1</v>
@@ -3995,16 +3995,16 @@
         <v>0</v>
       </c>
       <c r="W37" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X37" s="13">
         <v>1</v>
       </c>
       <c r="Y37" s="13">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Z37" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -4012,61 +4012,61 @@
         <v>51</v>
       </c>
       <c r="B38" s="13">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="C38" s="13">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D38" s="14">
-        <v>1.923</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="E38" s="13">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="F38" s="13">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G38" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="13">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J38" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K38" s="13">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="L38" s="13">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M38" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N38" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O38" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P38" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R38" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" s="13">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="T38" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="U38" s="13">
         <v>0</v>
@@ -4075,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="13">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="X38" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Y38" s="13">
         <v>3</v>
@@ -4104,10 +4104,10 @@
         <v>20</v>
       </c>
       <c r="F39" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="G39" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="13">
         <v>1</v>
@@ -4122,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="L39" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="M39" s="13">
         <v>1</v>
       </c>
-      <c r="N39" s="13" t="s">
-        <v>20</v>
+      <c r="N39" s="13">
+        <v>0.13</v>
       </c>
       <c r="O39" s="13">
         <v>0</v>
@@ -4139,11 +4139,11 @@
       <c r="Q39" s="13">
         <v>1</v>
       </c>
-      <c r="R39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="13">
-        <v>0</v>
+      <c r="R39" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="T39" s="13">
         <v>0</v>
@@ -4154,43 +4154,43 @@
       <c r="V39" s="13">
         <v>0</v>
       </c>
-      <c r="W39" s="13">
-        <v>0</v>
+      <c r="W39" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="X39" s="13">
         <v>0</v>
       </c>
       <c r="Y39" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z39" s="13">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>20</v>
+      <c r="B40" s="13">
+        <v>13</v>
       </c>
       <c r="C40" s="13">
+        <v>2</v>
+      </c>
+      <c r="D40" s="14">
+        <v>4.633</v>
+      </c>
+      <c r="E40" s="13">
+        <v>9</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
         <v>3</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
-        <v>4</v>
-      </c>
       <c r="H40" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>20</v>
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="13">
-        <v>0.34</v>
+        <v>9</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="13">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" s="13">
         <v>1</v>
@@ -4252,13 +4252,13 @@
         <v>54</v>
       </c>
       <c r="B41" s="13">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="C41" s="13">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="D41" s="14">
-        <v>0.38</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -4267,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="H41" s="13">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N41" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O41" s="13">
         <v>0</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="R41" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S41" s="13">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="13">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="Z41" s="13">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4335,55 +4335,55 @@
         <v>26</v>
       </c>
       <c r="C42" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="11">
-        <v>1.2150000000000001</v>
+        <v>1.538</v>
       </c>
       <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10">
+        <v>6</v>
+      </c>
+      <c r="H42" s="10">
+        <v>5</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
         <v>19</v>
       </c>
-      <c r="F42" s="10">
-        <v>6</v>
-      </c>
-      <c r="G42" s="10">
-        <v>7</v>
-      </c>
-      <c r="H42" s="10">
-        <v>6</v>
-      </c>
-      <c r="I42" s="10">
-        <v>2</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
-        <v>17</v>
-      </c>
       <c r="L42" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N42" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P42" s="10">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Q42" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R42" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S42" s="10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T42" s="10">
         <v>0</v>
@@ -4395,16 +4395,16 @@
         <v>0</v>
       </c>
       <c r="W42" s="10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X42" s="10">
         <v>0</v>
       </c>
       <c r="Y42" s="10">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="Z42" s="10">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4412,25 +4412,25 @@
         <v>56</v>
       </c>
       <c r="B43" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43" s="13">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="H43" s="13">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -4439,16 +4439,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
       </c>
       <c r="M43" s="13">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="N43" s="13">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="O43" s="13">
         <v>0</v>
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="13">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="R43" s="13">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="S43" s="13">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0.04</v>
       </c>
       <c r="Z43" s="13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4492,16 +4492,16 @@
         <v>57</v>
       </c>
       <c r="B44" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="13">
         <v>1</v>
       </c>
       <c r="D44" s="14">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="E44" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="13">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="13">
         <v>0</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="Y44" s="13">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="Z44" s="13">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4572,13 +4572,13 @@
         <v>58</v>
       </c>
       <c r="B45" s="13">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="C45" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D45" s="14">
-        <v>2.0550000000000002</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="13">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="H45" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -4605,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="13">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="N45" s="13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O45" s="13">
         <v>0</v>
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="13">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="R45" s="13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="S45" s="13">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z45" s="13">
         <v>0.02</v>
@@ -4652,55 +4652,55 @@
         <v>59</v>
       </c>
       <c r="B46" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="14">
-        <v>0.14099999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E46" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="13">
+        <v>5</v>
+      </c>
+      <c r="G46" s="13">
+        <v>4</v>
+      </c>
+      <c r="H46" s="13">
+        <v>4</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
         <v>6</v>
       </c>
-      <c r="G46" s="13">
+      <c r="L46" s="13">
         <v>5</v>
       </c>
-      <c r="H46" s="13">
-        <v>5</v>
-      </c>
-      <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
-        <v>0</v>
-      </c>
-      <c r="K46" s="13">
-        <v>7</v>
-      </c>
-      <c r="L46" s="13">
-        <v>6</v>
-      </c>
       <c r="M46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P46" s="13">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Q46" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" s="13">
         <v>0</v>
@@ -4732,55 +4732,55 @@
         <v>60</v>
       </c>
       <c r="B47" s="10">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C47" s="10">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D47" s="11">
-        <v>0.746</v>
+        <v>1.329</v>
       </c>
       <c r="E47" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F47" s="10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G47" s="10">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H47" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I47" s="10">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="J47" s="10">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K47" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L47" s="10">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N47" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>20</v>
       </c>
       <c r="P47" s="10">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="Q47" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R47" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S47" s="10">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="10">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z47" s="10">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="13">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>20</v>
@@ -4827,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="H48" s="13">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="13">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="N48" s="13">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O48" s="13">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="13">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="R48" s="13">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="S48" s="13">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="Y48" s="13">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z48" s="13">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
@@ -4892,13 +4892,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="14">
-        <v>0.1</v>
+        <v>0.123</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="13">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="O49" s="13">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="13">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="S49" s="13">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z49" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -4978,25 +4978,25 @@
         <v>1</v>
       </c>
       <c r="D50" s="14">
-        <v>0.45900000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="E50" s="13">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F50" s="13">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G50" s="13">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H50" s="13">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I50" s="13">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="J50" s="13">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K50" s="13">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="13">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="N50" s="13">
         <v>0.06</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="13">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="R50" s="13">
         <v>0.06</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="13">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Z50" s="13">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
@@ -5055,22 +5055,22 @@
         <v>106</v>
       </c>
       <c r="C51" s="13">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D51" s="14">
-        <v>0.88500000000000001</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="E51" s="13">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F51" s="13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G51" s="13">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H51" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -5079,28 +5079,28 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L51" s="13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P51" s="13">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="Q51" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R51" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S51" s="13">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z51" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -5132,79 +5132,79 @@
         <v>65</v>
       </c>
       <c r="B52" s="10">
-        <v>965</v>
+        <v>810</v>
       </c>
       <c r="C52" s="10">
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="D52" s="11">
-        <v>0.63600000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="E52" s="10">
-        <v>724</v>
+        <v>606</v>
       </c>
       <c r="F52" s="10">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="G52" s="10">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H52" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I52" s="10">
+        <v>51</v>
+      </c>
+      <c r="J52" s="10">
+        <v>50</v>
+      </c>
+      <c r="K52" s="10">
+        <v>548</v>
+      </c>
+      <c r="L52" s="10">
+        <v>321</v>
+      </c>
+      <c r="M52" s="10">
+        <v>75</v>
+      </c>
+      <c r="N52" s="10">
+        <v>69</v>
+      </c>
+      <c r="O52" s="10">
+        <v>7</v>
+      </c>
+      <c r="P52" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>68</v>
+      </c>
+      <c r="R52" s="10">
         <v>63</v>
       </c>
-      <c r="J52" s="10">
-        <v>53</v>
-      </c>
-      <c r="K52" s="10">
-        <v>652</v>
-      </c>
-      <c r="L52" s="10">
-        <v>342</v>
-      </c>
-      <c r="M52" s="10">
-        <v>88</v>
-      </c>
-      <c r="N52" s="10">
-        <v>78</v>
-      </c>
-      <c r="O52" s="10">
-        <v>9</v>
-      </c>
-      <c r="P52" s="10">
-        <v>7</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>79</v>
-      </c>
-      <c r="R52" s="10">
-        <v>71</v>
-      </c>
       <c r="S52" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T52" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U52" s="10" t="s">
         <v>20</v>
       </c>
       <c r="V52" s="10">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="W52" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X52" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y52" s="10">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="Z52" s="10">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -5212,61 +5212,61 @@
         <v>66</v>
       </c>
       <c r="B53" s="13">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="C53" s="13">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D53" s="14">
-        <v>0.16800000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="F53" s="13">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G53" s="13">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H53" s="13">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I53" s="13">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J53" s="13">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K53" s="13">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="L53" s="13">
-        <v>174</v>
-      </c>
-      <c r="M53" s="13">
-        <v>45</v>
+        <v>160</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="N53" s="13">
-        <v>43</v>
-      </c>
-      <c r="O53" s="13">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="P53" s="13">
         <v>2</v>
       </c>
       <c r="Q53" s="13">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R53" s="13">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S53" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T53" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U53" s="13">
         <v>0</v>
@@ -5275,16 +5275,16 @@
         <v>0</v>
       </c>
       <c r="W53" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X53" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y53" s="13">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Z53" s="13">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -5292,25 +5292,25 @@
         <v>67</v>
       </c>
       <c r="B54" s="13">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C54" s="13">
+        <v>45</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E54" s="13">
         <v>51</v>
-      </c>
-      <c r="D54" s="14">
-        <v>1.103</v>
-      </c>
-      <c r="E54" s="13">
-        <v>68</v>
       </c>
       <c r="F54" s="13">
         <v>18</v>
       </c>
       <c r="G54" s="13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H54" s="13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
@@ -5319,52 +5319,52 @@
         <v>0</v>
       </c>
       <c r="K54" s="13">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L54" s="13">
         <v>17</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="13">
+        <v>13</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>14</v>
+      </c>
+      <c r="R54" s="13">
+        <v>12</v>
+      </c>
+      <c r="S54" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="T54" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="U54" s="13">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="Y54" s="13">
         <v>18</v>
       </c>
-      <c r="N54" s="13">
-        <v>16</v>
-      </c>
-      <c r="O54" s="13">
-        <v>1</v>
-      </c>
-      <c r="P54" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="13">
-        <v>17</v>
-      </c>
-      <c r="R54" s="13">
+      <c r="Z54" s="13">
         <v>15</v>
-      </c>
-      <c r="S54" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="T54" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="U54" s="13">
-        <v>0</v>
-      </c>
-      <c r="V54" s="13">
-        <v>0</v>
-      </c>
-      <c r="W54" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="X54" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="Y54" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z54" s="13">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -5372,16 +5372,16 @@
         <v>68</v>
       </c>
       <c r="B55" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="14">
-        <v>9.4079999999999995</v>
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="E55" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="13">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55" s="13">
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="N55" s="13">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O55" s="13">
         <v>0</v>
@@ -5417,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="R55" s="13">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S55" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T55" s="13">
         <v>0.01</v>
@@ -5435,16 +5435,16 @@
         <v>0</v>
       </c>
       <c r="W55" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="X55" s="13">
         <v>0.01</v>
       </c>
       <c r="Y55" s="13">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="Z55" s="13">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -5455,10 +5455,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="13">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="D56" s="14">
-        <v>0.31900000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="13">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="N56" s="13">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O56" s="13">
         <v>0</v>
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="Q56" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="R56" s="13">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S56" s="13">
         <v>0</v>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="13">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="Z56" s="13">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -5532,67 +5532,67 @@
         <v>70</v>
       </c>
       <c r="B57" s="13">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C57" s="13">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D57" s="14">
-        <v>0.64500000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="E57" s="13">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F57" s="13">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G57" s="13">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H57" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="13">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="L57" s="13">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M57" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N57" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O57" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P57" s="13">
         <v>4</v>
       </c>
       <c r="Q57" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R57" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T57" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="V57" s="13">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="W57" s="13">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="Y57" s="13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z57" s="13">
         <v>11</v>
@@ -5612,55 +5612,55 @@
         <v>71</v>
       </c>
       <c r="B58" s="13">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C58" s="13">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D58" s="14">
-        <v>0.66500000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E58" s="13">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F58" s="13">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G58" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J58" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K58" s="13">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L58" s="13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M58" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N58" s="13">
+        <v>5</v>
+      </c>
+      <c r="O58" s="13">
+        <v>0</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="13">
         <v>6</v>
       </c>
-      <c r="O58" s="13">
-        <v>0</v>
-      </c>
-      <c r="P58" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="13">
-        <v>7</v>
-      </c>
       <c r="R58" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S58" s="13">
         <v>7.0000000000000007E-2</v>
@@ -5692,25 +5692,25 @@
         <v>72</v>
       </c>
       <c r="B59" s="13">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C59" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="13">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F59" s="13">
         <v>3</v>
       </c>
       <c r="G59" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H59" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -5719,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L59" s="13">
         <v>3</v>
       </c>
       <c r="M59" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="13">
         <v>2</v>
@@ -5737,34 +5737,34 @@
         <v>0</v>
       </c>
       <c r="Q59" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R59" s="13">
         <v>2</v>
       </c>
       <c r="S59" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="T59" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="U59" s="13">
+        <v>0</v>
+      </c>
+      <c r="V59" s="13">
+        <v>0</v>
+      </c>
+      <c r="W59" s="13">
         <v>0.47</v>
       </c>
-      <c r="U59" s="13">
-        <v>0</v>
-      </c>
-      <c r="V59" s="13">
-        <v>0</v>
-      </c>
-      <c r="W59" s="13">
-        <v>1</v>
-      </c>
       <c r="X59" s="13">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="Y59" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z59" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5772,13 +5772,13 @@
         <v>73</v>
       </c>
       <c r="B60" s="13">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="C60" s="13">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="D60" s="14">
-        <v>0.30399999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0.25</v>
+        <v>0.24</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -5805,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="13">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N60" s="13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O60" s="13">
         <v>0</v>
@@ -5817,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="Q60" s="13">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R60" s="13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="S60" s="13">
         <v>0.02</v>
@@ -5840,8 +5840,8 @@
       <c r="X60" s="13">
         <v>0.02</v>
       </c>
-      <c r="Y60" s="13">
-        <v>0.2</v>
+      <c r="Y60" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="Z60" s="13" t="s">
         <v>20</v>
@@ -5852,79 +5852,79 @@
         <v>74</v>
       </c>
       <c r="B61" s="10">
-        <v>2143</v>
+        <v>1798</v>
       </c>
       <c r="C61" s="10">
-        <v>1526</v>
+        <v>1347</v>
       </c>
       <c r="D61" s="11">
-        <v>0.40400000000000003</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E61" s="10">
-        <v>1411</v>
+        <v>1197</v>
       </c>
       <c r="F61" s="10">
-        <v>987</v>
+        <v>905</v>
       </c>
       <c r="G61" s="10">
-        <v>732</v>
+        <v>600</v>
       </c>
       <c r="H61" s="10">
-        <v>539</v>
+        <v>442</v>
       </c>
       <c r="I61" s="10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J61" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K61" s="10">
-        <v>1359</v>
+        <v>1154</v>
       </c>
       <c r="L61" s="10">
-        <v>943</v>
+        <v>864</v>
       </c>
       <c r="M61" s="10">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="N61" s="10">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O61" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P61" s="10">
         <v>7</v>
       </c>
       <c r="Q61" s="10">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="R61" s="10">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="S61" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T61" s="10">
+        <v>72</v>
+      </c>
+      <c r="U61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="W61" s="10">
         <v>91</v>
       </c>
-      <c r="U61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V61" s="10">
-        <v>1</v>
-      </c>
-      <c r="W61" s="10">
-        <v>117</v>
-      </c>
       <c r="X61" s="10">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Y61" s="10">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="Z61" s="10">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -5932,79 +5932,79 @@
         <v>75</v>
       </c>
       <c r="B62" s="13">
-        <v>2121</v>
+        <v>1779</v>
       </c>
       <c r="C62" s="13">
-        <v>1513</v>
+        <v>1339</v>
       </c>
       <c r="D62" s="14">
-        <v>0.40100000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E62" s="13">
-        <v>1403</v>
+        <v>1187</v>
       </c>
       <c r="F62" s="13">
-        <v>985</v>
+        <v>903</v>
       </c>
       <c r="G62" s="13">
-        <v>718</v>
+        <v>592</v>
       </c>
       <c r="H62" s="13">
-        <v>528</v>
+        <v>436</v>
       </c>
       <c r="I62" s="13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J62" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K62" s="13">
-        <v>1351</v>
+        <v>1144</v>
       </c>
       <c r="L62" s="13">
-        <v>942</v>
+        <v>863</v>
       </c>
       <c r="M62" s="13">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="N62" s="13">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O62" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P62" s="13">
         <v>7</v>
       </c>
       <c r="Q62" s="13">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="R62" s="13">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="S62" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T62" s="13">
+        <v>72</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="W62" s="13">
         <v>91</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V62" s="13">
-        <v>1</v>
-      </c>
-      <c r="W62" s="13">
-        <v>116</v>
-      </c>
       <c r="X62" s="13">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="Y62" s="13">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="Z62" s="13">
-        <v>316</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -6012,43 +6012,43 @@
         <v>76</v>
       </c>
       <c r="B63" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" s="14">
-        <v>0.84599999999999997</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="E63" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F63" s="13">
         <v>2</v>
       </c>
       <c r="G63" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H63" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J63" s="13">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="K63" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L63" s="13">
         <v>1</v>
       </c>
       <c r="M63" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" s="13">
         <v>0</v>
@@ -6057,16 +6057,16 @@
         <v>0</v>
       </c>
       <c r="Q63" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R63" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S63" s="13">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="T63" s="13">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="U63" s="13">
         <v>0</v>
@@ -6075,16 +6075,16 @@
         <v>0</v>
       </c>
       <c r="W63" s="13">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="X63" s="13">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="Y63" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z63" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -6092,31 +6092,31 @@
         <v>77</v>
       </c>
       <c r="B64" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C64" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="14">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="E64" s="13">
         <v>0.04</v>
       </c>
       <c r="F64" s="13">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G64" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H64" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" s="13">
         <v>0.04</v>
       </c>
       <c r="J64" s="13">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="M64" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="N64" s="13">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="O64" s="13">
         <v>0</v>
@@ -6137,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="Q64" s="13">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="R64" s="13">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="S64" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T64" s="13">
         <v>0</v>
@@ -6155,16 +6155,16 @@
         <v>0</v>
       </c>
       <c r="W64" s="13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="X64" s="13">
         <v>0</v>
       </c>
       <c r="Y64" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z64" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -6172,43 +6172,43 @@
         <v>78</v>
       </c>
       <c r="B65" s="10">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C65" s="10">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D65" s="11">
-        <v>0.186</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E65" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65" s="10">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H65" s="10">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I65" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" s="10">
+        <v>2</v>
+      </c>
+      <c r="K65" s="10">
         <v>3</v>
-      </c>
-      <c r="K65" s="10">
-        <v>4</v>
       </c>
       <c r="L65" s="10">
         <v>2</v>
       </c>
       <c r="M65" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N65" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O65" s="10">
         <v>0</v>
@@ -6217,16 +6217,16 @@
         <v>0</v>
       </c>
       <c r="Q65" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R65" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S65" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="T65" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U65" s="10">
         <v>0</v>
@@ -6235,16 +6235,16 @@
         <v>0</v>
       </c>
       <c r="W65" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="X65" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Y65" s="10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z65" s="10">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
@@ -6332,43 +6332,43 @@
         <v>81</v>
       </c>
       <c r="B67" s="13">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C67" s="13">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D67" s="14">
-        <v>0.186</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E67" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="13">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H67" s="13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I67" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" s="13">
+        <v>2</v>
+      </c>
+      <c r="K67" s="13">
         <v>3</v>
-      </c>
-      <c r="K67" s="13">
-        <v>4</v>
       </c>
       <c r="L67" s="13">
         <v>2</v>
       </c>
       <c r="M67" s="13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N67" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O67" s="13">
         <v>0</v>
@@ -6377,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="Q67" s="13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R67" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S67" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="T67" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U67" s="13">
         <v>0</v>
@@ -6395,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="W67" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="X67" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Y67" s="13">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z67" s="13">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -6412,79 +6412,79 @@
         <v>82</v>
       </c>
       <c r="B68" s="10">
-        <v>4492</v>
+        <v>3766</v>
       </c>
       <c r="C68" s="10">
-        <v>2897</v>
+        <v>2507</v>
       </c>
       <c r="D68" s="11">
-        <v>0.55100000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="E68" s="10">
-        <v>2883</v>
+        <v>2458</v>
       </c>
       <c r="F68" s="10">
-        <v>1700</v>
+        <v>1525</v>
       </c>
       <c r="G68" s="10">
-        <v>1609</v>
+        <v>1307</v>
       </c>
       <c r="H68" s="10">
-        <v>1198</v>
+        <v>982</v>
       </c>
       <c r="I68" s="10">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="J68" s="10">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K68" s="10">
-        <v>2662</v>
+        <v>2278</v>
       </c>
       <c r="L68" s="10">
-        <v>1558</v>
+        <v>1398</v>
       </c>
       <c r="M68" s="10">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="N68" s="10">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="O68" s="10">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P68" s="10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q68" s="10">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="R68" s="10">
-        <v>455</v>
-      </c>
-      <c r="S68" s="10">
-        <v>158</v>
+        <v>367</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="T68" s="10">
-        <v>126</v>
-      </c>
-      <c r="U68" s="10">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="U68" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="V68" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W68" s="10">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="X68" s="10">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Y68" s="10">
-        <v>875</v>
+        <v>717</v>
       </c>
       <c r="Z68" s="10">
-        <v>618</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.25">
